--- a/data/01_raw/default_user/data_set_samples/abuse/cell_list.xlsx
+++ b/data/01_raw/default_user/data_set_samples/abuse/cell_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vdeange\PycharmProjects\battery-archive-sandbox\data\data_set_samples\abuse\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hege/workspace/battery-archive-sandbox/data/01_raw/default_user/data_set_samples/abuse/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{138E6542-C88A-40C9-A5E6-9CF3B4FB9A9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA2FC612-F901-1942-8D30-8B5051B191CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{07EF3D65-9BA3-43DB-B014-0F8C59FBB292}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="15840" xr2:uid="{07EF3D65-9BA3-43DB-B014-0F8C59FBB292}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
   <si>
     <t>NMC</t>
   </si>
@@ -114,6 +114,9 @@
   </si>
   <si>
     <t>sample_1</t>
+  </si>
+  <si>
+    <t>mapping</t>
   </si>
 </sst>
 </file>
@@ -506,26 +509,26 @@
   <dimension ref="A1:X3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.1640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -571,9 +574,12 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="P1" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="X1" s="4"/>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>26</v>
       </c>
@@ -619,8 +625,11 @@
       <c r="O2" s="3" t="s">
         <v>17</v>
       </c>
+      <c r="P2" s="3" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
@@ -664,6 +673,9 @@
         <v>13</v>
       </c>
       <c r="O3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="3" t="s">
         <v>17</v>
       </c>
     </row>
